--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V3 Linking Workbooks/W1_ExpensesQ2.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V3 Linking Workbooks/W1_ExpensesQ2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 1\W1-V3 Linking Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A427D7-7894-4AB3-B519-58CE7BC20F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43" windowWidth="37397" windowHeight="15994" activeTab="3"/>
+    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="6192" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sean" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="WeekEnding" localSheetId="1">Uma!$C$3</definedName>
     <definedName name="WeekEnding">Sean!$C$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -522,15 +523,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Do Not Type" xfId="4"/>
+    <cellStyle name="Do Not Type" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input Custom" xfId="2"/>
-    <cellStyle name="Instructions" xfId="5"/>
+    <cellStyle name="Input Custom" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Instructions" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Totals" xfId="3"/>
+    <cellStyle name="Table Totals" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -581,7 +582,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Expense Report" defaultPivotStyle="PivotStyleLight15">
-    <tableStyle name="Expense Report" pivot="0" count="3">
+    <tableStyle name="Expense Report" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="totalRow" dxfId="1"/>
       <tableStyleElement type="lastColumn" dxfId="0"/>
@@ -907,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -916,16 +917,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" customWidth="1"/>
-    <col min="8" max="11" width="9.453125"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="11" width="9.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
@@ -937,8 +938,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
@@ -946,7 +947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
@@ -954,7 +955,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -971,7 +972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -986,7 +987,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>162.14000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1084,14 +1085,14 @@
         <v>197.14000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1101,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1169,14 +1170,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1186,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -1254,14 +1255,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
@@ -1282,14 +1283,14 @@
         <v>197.14000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1304,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1313,16 +1314,16 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="17.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
@@ -1334,8 +1335,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1479,14 +1480,14 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
@@ -1495,7 +1496,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>248.95</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1566,14 +1567,14 @@
         <v>248.95</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1583,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>121.22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>227.70000000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -1661,14 +1662,14 @@
         <v>348.92</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
@@ -1689,14 +1690,14 @@
         <v>972.87000000000012</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1711,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1720,16 +1721,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="17.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
@@ -1741,8 +1742,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>621.76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>81.539999999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1909,14 +1910,14 @@
         <v>853.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
@@ -1925,7 +1926,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>742.56000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>532.09999999999991</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -2006,14 +2007,14 @@
         <v>1579.29</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +2023,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>268.79999999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>65.319999999999993</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -2099,14 +2100,14 @@
         <v>334.11999999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
@@ -2127,14 +2128,14 @@
         <v>2766.71</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2149,27 +2150,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="17.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
@@ -2181,8 +2182,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>13</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>783.90000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>81.539999999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
@@ -2383,14 +2384,14 @@
         <v>1425.44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>16</v>
       </c>
@@ -2399,7 +2400,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>991.5100000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>532.09999999999991</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -2504,14 +2505,14 @@
         <v>1828.24</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>17</v>
       </c>
@@ -2520,7 +2521,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>121.22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>496.5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>19</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>65.319999999999993</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -2625,14 +2626,14 @@
         <v>683.04</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
@@ -2653,14 +2654,14 @@
         <v>3936.7200000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
